--- a/tables/time/How much time do you usually spend in parks or squares since the corona virus outbreak in Serbia?.xlsx
+++ b/tables/time/How much time do you usually spend in parks or squares since the corona virus outbreak in Serbia?.xlsx
@@ -411,7 +411,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C2">
         <v>29.5</v>
@@ -422,10 +422,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -433,10 +433,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -444,10 +444,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C5">
-        <v>17.8</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -455,7 +455,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>11.5</v>
